--- a/results/mp/logistic/corona/confidence/84/0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>die</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -73,133 +73,133 @@
     <t>stop</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +565,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -626,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6470588235294118</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5555555555555556</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5263157894736842</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4656084656084656</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C8">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8302872062663186</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L8">
-        <v>318</v>
+        <v>89</v>
       </c>
       <c r="M8">
-        <v>318</v>
+        <v>89</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,16 +947,16 @@
         <v>330</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8205128205128205</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,28 +997,28 @@
         <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L10">
+        <v>317</v>
+      </c>
+      <c r="M10">
+        <v>317</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>66</v>
-      </c>
-      <c r="M10">
-        <v>66</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1946308724832215</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1388888888888889</v>
+        <v>0.1638888888888889</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.07539682539682539</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,37 +1176,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01096121416526138</v>
+        <v>0.008389803162310423</v>
       </c>
       <c r="C14">
         <v>26</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="F14">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2346</v>
+        <v>3073</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,37 +1226,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006769825918762089</v>
+        <v>0.005640925889904688</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E15">
-        <v>0.19</v>
+        <v>0.45</v>
       </c>
       <c r="F15">
-        <v>0.8100000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>3081</v>
+        <v>5112</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,265 +1276,193 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005963590709353421</v>
+        <v>0.005355064027939465</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D16">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>0.59</v>
+      </c>
+      <c r="F16">
+        <v>0.41</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>4272</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.765625</v>
+      </c>
+      <c r="L16">
+        <v>98</v>
+      </c>
+      <c r="M16">
+        <v>98</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>35</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.7435897435897436</v>
+      </c>
+      <c r="L18">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>29</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.7394366197183099</v>
+      </c>
+      <c r="L20">
+        <v>105</v>
+      </c>
+      <c r="M20">
+        <v>105</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L22">
         <v>34</v>
       </c>
-      <c r="E16">
-        <v>0.44</v>
-      </c>
-      <c r="F16">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>3167</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16">
-        <v>0.7735849056603774</v>
-      </c>
-      <c r="L16">
-        <v>82</v>
-      </c>
-      <c r="M16">
-        <v>82</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.004868549172346641</v>
-      </c>
-      <c r="C17">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>55</v>
-      </c>
-      <c r="E17">
-        <v>0.55</v>
-      </c>
-      <c r="F17">
-        <v>0.45</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>5110</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17">
-        <v>0.7605633802816901</v>
-      </c>
-      <c r="L17">
-        <v>108</v>
-      </c>
-      <c r="M17">
-        <v>108</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="M22">
         <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.004419632472668062</v>
-      </c>
-      <c r="C18">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>48</v>
-      </c>
-      <c r="E18">
-        <v>0.6</v>
-      </c>
-      <c r="F18">
-        <v>0.4</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>4280</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.75</v>
-      </c>
-      <c r="L18">
-        <v>36</v>
-      </c>
-      <c r="M18">
-        <v>36</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.004034698406294129</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>59</v>
-      </c>
-      <c r="E19">
-        <v>0.66</v>
-      </c>
-      <c r="F19">
-        <v>0.34</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>4937</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L19">
-        <v>19</v>
-      </c>
-      <c r="M19">
-        <v>19</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="L20">
-        <v>25</v>
-      </c>
-      <c r="M20">
-        <v>25</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="L21">
-        <v>24</v>
-      </c>
-      <c r="M21">
-        <v>24</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="L22">
-        <v>29</v>
-      </c>
-      <c r="M22">
-        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1549,252 +1477,252 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="L23">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>24</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L24">
+        <v>43</v>
+      </c>
+      <c r="M24">
+        <v>43</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.68</v>
+      </c>
+      <c r="L25">
+        <v>34</v>
+      </c>
+      <c r="M25">
+        <v>34</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L23">
-        <v>42</v>
-      </c>
-      <c r="M23">
-        <v>42</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+      <c r="K26">
+        <v>0.6279069767441861</v>
+      </c>
+      <c r="L26">
+        <v>27</v>
+      </c>
+      <c r="M26">
+        <v>27</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K24">
-        <v>0.66</v>
-      </c>
-      <c r="L24">
-        <v>33</v>
-      </c>
-      <c r="M24">
-        <v>33</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
+      <c r="K27">
+        <v>0.6205882352941177</v>
+      </c>
+      <c r="L27">
+        <v>211</v>
+      </c>
+      <c r="M27">
+        <v>211</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K25">
-        <v>0.6382978723404256</v>
-      </c>
-      <c r="L25">
-        <v>30</v>
-      </c>
-      <c r="M25">
-        <v>30</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
+      <c r="K28">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="M28">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K26">
-        <v>0.625</v>
-      </c>
-      <c r="L26">
-        <v>25</v>
-      </c>
-      <c r="M26">
-        <v>25</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
+      <c r="K29">
+        <v>0.5857740585774058</v>
+      </c>
+      <c r="L29">
+        <v>140</v>
+      </c>
+      <c r="M29">
+        <v>140</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K27">
-        <v>0.6235294117647059</v>
-      </c>
-      <c r="L27">
-        <v>212</v>
-      </c>
-      <c r="M27">
-        <v>212</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
+      <c r="K30">
+        <v>0.5851063829787234</v>
+      </c>
+      <c r="L30">
+        <v>55</v>
+      </c>
+      <c r="M30">
+        <v>55</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K28">
-        <v>0.5816326530612245</v>
-      </c>
-      <c r="L28">
-        <v>171</v>
-      </c>
-      <c r="M28">
-        <v>172</v>
-      </c>
-      <c r="N28">
-        <v>0.99</v>
-      </c>
-      <c r="O28">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
+      <c r="K31">
+        <v>0.5627118644067797</v>
+      </c>
+      <c r="L31">
+        <v>166</v>
+      </c>
+      <c r="M31">
+        <v>166</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K29">
-        <v>0.5774058577405857</v>
-      </c>
-      <c r="L29">
-        <v>138</v>
-      </c>
-      <c r="M29">
-        <v>138</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30">
-        <v>0.574468085106383</v>
-      </c>
-      <c r="L30">
-        <v>54</v>
-      </c>
-      <c r="M30">
-        <v>54</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31">
-        <v>0.5571428571428572</v>
-      </c>
-      <c r="L31">
-        <v>39</v>
-      </c>
-      <c r="M31">
-        <v>39</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K32">
-        <v>0.5384615384615384</v>
+        <v>0.55</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1806,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.4719101123595505</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1832,21 +1760,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.3725490196078431</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1858,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.3150684931506849</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1884,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.3076923076923077</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1910,137 +1838,189 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.02675585284280936</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N37">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1164</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.0101427498121713</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>2635</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.007837620578778135</v>
+        <v>0.02673350041771094</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N39">
-        <v>0.66</v>
+        <v>0.91</v>
       </c>
       <c r="O39">
-        <v>0.34</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>4937</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.006730099791134834</v>
+        <v>0.00976342470897484</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N40">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="O40">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>4280</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.005836575875486381</v>
+        <v>0.008433734939759036</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M41">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N41">
+        <v>0.72</v>
+      </c>
+      <c r="O41">
+        <v>0.28</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42">
+        <v>0.007665505226480836</v>
+      </c>
+      <c r="L42">
+        <v>33</v>
+      </c>
+      <c r="M42">
+        <v>56</v>
+      </c>
+      <c r="N42">
+        <v>0.59</v>
+      </c>
+      <c r="O42">
+        <v>0.41</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43">
+        <v>0.004672897196261682</v>
+      </c>
+      <c r="L43">
+        <v>24</v>
+      </c>
+      <c r="M43">
+        <v>53</v>
+      </c>
+      <c r="N43">
+        <v>0.45</v>
+      </c>
+      <c r="O43">
         <v>0.55</v>
       </c>
-      <c r="O41">
-        <v>0.45</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>5110</v>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>5112</v>
       </c>
     </row>
   </sheetData>
